--- a/data/trans_orig/IP19C06-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP19C06-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FEA08DD-5B35-4920-9B86-0550848F0960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2571C604-5756-4D0E-9928-7867B38E7463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{7A375A8C-48EC-4031-B33F-F0BCC20A9284}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{4F6B45FC-B47D-42A7-B92D-B8F3E20E889F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -107,6 +107,27 @@
     <t>2,86%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -140,27 +161,6 @@
     <t>0,96%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
     <t>99,66%</t>
   </si>
   <si>
@@ -224,6 +224,30 @@
     <t>9,55%</t>
   </si>
   <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
     <t>99,33%</t>
   </si>
   <si>
@@ -272,30 +296,6 @@
     <t>1,75%</t>
   </si>
   <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
     <t>99,39%</t>
   </si>
   <si>
@@ -353,6 +353,30 @@
     <t>5,78%</t>
   </si>
   <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
     <t>99,69%</t>
   </si>
   <si>
@@ -365,9 +389,6 @@
     <t>98,61%</t>
   </si>
   <si>
-    <t>99,71%</t>
-  </si>
-  <si>
     <t>98,95%</t>
   </si>
   <si>
@@ -383,30 +404,9 @@
     <t>1,39%</t>
   </si>
   <si>
-    <t>0,29%</t>
-  </si>
-  <si>
     <t>1,05%</t>
   </si>
   <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
     <t>99,81%</t>
   </si>
   <si>
@@ -464,6 +464,42 @@
     <t>5,4%</t>
   </si>
   <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
     <t>99,67%</t>
   </si>
   <si>
@@ -498,42 +534,6 @@
   </si>
   <si>
     <t>1,76%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
   </si>
   <si>
     <t>99,59%</t>
@@ -973,7 +973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7553D905-97ED-4235-8E27-F938B7CCFEBE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B032502-6D40-4D73-A528-2327D1A86A3C}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1246,49 +1246,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>342</v>
+        <v>170</v>
       </c>
       <c r="D7" s="7">
-        <v>229161</v>
+        <v>111716</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>330</v>
+        <v>157</v>
       </c>
       <c r="I7" s="7">
-        <v>222630</v>
+        <v>106070</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="7">
+        <v>327</v>
+      </c>
+      <c r="N7" s="7">
+        <v>217786</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" s="7">
-        <v>672</v>
-      </c>
-      <c r="N7" s="7">
-        <v>451791</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1297,19 +1297,19 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>1219</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1324,22 +1324,22 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M8" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>1219</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1348,10 +1348,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>344</v>
+        <v>170</v>
       </c>
       <c r="D9" s="7">
-        <v>230380</v>
+        <v>111716</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -1363,10 +1363,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>330</v>
+        <v>157</v>
       </c>
       <c r="I9" s="7">
-        <v>222630</v>
+        <v>106070</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1378,10 +1378,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>674</v>
+        <v>327</v>
       </c>
       <c r="N9" s="7">
-        <v>453010</v>
+        <v>217786</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -1395,55 +1395,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>170</v>
+        <v>342</v>
       </c>
       <c r="D10" s="7">
-        <v>111716</v>
+        <v>229161</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H10" s="7">
-        <v>157</v>
+        <v>330</v>
       </c>
       <c r="I10" s="7">
-        <v>106070</v>
+        <v>222630</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>327</v>
+        <v>672</v>
       </c>
       <c r="N10" s="7">
-        <v>217786</v>
+        <v>451791</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1452,19 +1452,19 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>1219</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11" s="7">
+        <v>2</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1219</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>39</v>
@@ -1503,10 +1503,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>170</v>
+        <v>344</v>
       </c>
       <c r="D12" s="7">
-        <v>111716</v>
+        <v>230380</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -1518,10 +1518,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>157</v>
+        <v>330</v>
       </c>
       <c r="I12" s="7">
-        <v>106070</v>
+        <v>222630</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -1533,10 +1533,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>327</v>
+        <v>674</v>
       </c>
       <c r="N12" s="7">
-        <v>217786</v>
+        <v>453010</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -1719,7 +1719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC01B8A9-E3A3-4615-9C14-3652E033D4E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64792F1F-84CB-4D69-B2EA-A46BFF059A3C}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1992,10 +1992,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>322</v>
+        <v>180</v>
       </c>
       <c r="D7" s="7">
-        <v>218136</v>
+        <v>131936</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>61</v>
@@ -2007,34 +2007,34 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>302</v>
+        <v>174</v>
       </c>
       <c r="I7" s="7">
-        <v>211223</v>
+        <v>124427</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="7">
+        <v>354</v>
+      </c>
+      <c r="N7" s="7">
+        <v>256364</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M7" s="7">
-        <v>624</v>
-      </c>
-      <c r="N7" s="7">
-        <v>429359</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2043,49 +2043,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>1481</v>
+        <v>742</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H8" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>1950</v>
+        <v>698</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="M8" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N8" s="7">
-        <v>3431</v>
+        <v>1440</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2094,10 +2094,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>324</v>
+        <v>181</v>
       </c>
       <c r="D9" s="7">
-        <v>219617</v>
+        <v>132678</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -2109,10 +2109,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>305</v>
+        <v>175</v>
       </c>
       <c r="I9" s="7">
-        <v>213173</v>
+        <v>125125</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -2124,10 +2124,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>629</v>
+        <v>356</v>
       </c>
       <c r="N9" s="7">
-        <v>432790</v>
+        <v>257804</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -2141,55 +2141,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>180</v>
+        <v>322</v>
       </c>
       <c r="D10" s="7">
-        <v>131936</v>
+        <v>218136</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>174</v>
+        <v>302</v>
       </c>
       <c r="I10" s="7">
-        <v>124427</v>
+        <v>211223</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="M10" s="7">
-        <v>354</v>
+        <v>624</v>
       </c>
       <c r="N10" s="7">
-        <v>256364</v>
+        <v>429359</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2198,46 +2198,46 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>742</v>
+        <v>1481</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="7">
+        <v>3</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1950</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M11" s="7">
+        <v>5</v>
+      </c>
+      <c r="N11" s="7">
+        <v>3431</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>698</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="M11" s="7">
-        <v>2</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1440</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>84</v>
@@ -2249,10 +2249,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>181</v>
+        <v>324</v>
       </c>
       <c r="D12" s="7">
-        <v>132678</v>
+        <v>219617</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -2264,10 +2264,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>175</v>
+        <v>305</v>
       </c>
       <c r="I12" s="7">
-        <v>125125</v>
+        <v>213173</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -2279,10 +2279,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>356</v>
+        <v>629</v>
       </c>
       <c r="N12" s="7">
-        <v>257804</v>
+        <v>432790</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -2323,7 +2323,7 @@
         <v>350761</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>87</v>
@@ -2374,7 +2374,7 @@
         <v>3230</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>93</v>
@@ -2465,7 +2465,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D50ED5D-1DE1-42CB-BCC3-F98BF3904089}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED8DCE60-84F3-4CAA-9561-39914F101E5B}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2738,46 +2738,46 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>303</v>
+        <v>191</v>
       </c>
       <c r="D7" s="7">
-        <v>223900</v>
+        <v>133666</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
+        <v>195</v>
+      </c>
+      <c r="I7" s="7">
+        <v>129033</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="7">
-        <v>313</v>
-      </c>
-      <c r="I7" s="7">
-        <v>221565</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="M7" s="7">
-        <v>616</v>
+        <v>386</v>
       </c>
       <c r="N7" s="7">
-        <v>445465</v>
+        <v>262699</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>11</v>
@@ -2789,49 +2789,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>617</v>
+        <v>771</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="M8" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>1317</v>
+        <v>771</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2840,10 +2840,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>304</v>
+        <v>191</v>
       </c>
       <c r="D9" s="7">
-        <v>224600</v>
+        <v>133666</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -2855,10 +2855,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>314</v>
+        <v>196</v>
       </c>
       <c r="I9" s="7">
-        <v>222182</v>
+        <v>129804</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -2870,10 +2870,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>618</v>
+        <v>387</v>
       </c>
       <c r="N9" s="7">
-        <v>446782</v>
+        <v>263470</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -2887,52 +2887,52 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>191</v>
+        <v>303</v>
       </c>
       <c r="D10" s="7">
-        <v>133666</v>
+        <v>223900</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H10" s="7">
-        <v>195</v>
+        <v>313</v>
       </c>
       <c r="I10" s="7">
-        <v>129033</v>
+        <v>221565</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>36</v>
+        <v>114</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>386</v>
+        <v>616</v>
       </c>
       <c r="N10" s="7">
-        <v>262699</v>
+        <v>445465</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>11</v>
@@ -2944,28 +2944,28 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>771</v>
+        <v>617</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>17</v>
@@ -2974,13 +2974,13 @@
         <v>120</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>771</v>
+        <v>1317</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>17</v>
@@ -2995,10 +2995,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>191</v>
+        <v>304</v>
       </c>
       <c r="D12" s="7">
-        <v>133666</v>
+        <v>224600</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -3010,10 +3010,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>196</v>
+        <v>314</v>
       </c>
       <c r="I12" s="7">
-        <v>129804</v>
+        <v>222182</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -3025,10 +3025,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>387</v>
+        <v>618</v>
       </c>
       <c r="N12" s="7">
-        <v>263470</v>
+        <v>446782</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -3084,7 +3084,7 @@
         <v>728538</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>89</v>
@@ -3135,7 +3135,7 @@
         <v>2088</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>17</v>
@@ -3211,7 +3211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF1FA73-98D9-4403-BC09-9082DC7A3C74}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B8298A3-D5E1-4CC1-8DBE-F0EC02431ED4}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3484,10 +3484,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>376</v>
+        <v>154</v>
       </c>
       <c r="D7" s="7">
-        <v>318581</v>
+        <v>122882</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>141</v>
@@ -3499,25 +3499,25 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>363</v>
+        <v>151</v>
       </c>
       <c r="I7" s="7">
-        <v>268582</v>
+        <v>109871</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>143</v>
+        <v>42</v>
       </c>
       <c r="M7" s="7">
-        <v>739</v>
+        <v>305</v>
       </c>
       <c r="N7" s="7">
-        <v>587163</v>
+        <v>232753</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>144</v>
@@ -3538,7 +3538,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>1056</v>
+        <v>838</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>147</v>
@@ -3550,25 +3550,25 @@
         <v>148</v>
       </c>
       <c r="H8" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I8" s="7">
-        <v>3759</v>
+        <v>1661</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>120</v>
-      </c>
       <c r="M8" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N8" s="7">
-        <v>4815</v>
+        <v>2499</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>150</v>
@@ -3586,10 +3586,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>377</v>
+        <v>155</v>
       </c>
       <c r="D9" s="7">
-        <v>319637</v>
+        <v>123720</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -3601,10 +3601,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>368</v>
+        <v>154</v>
       </c>
       <c r="I9" s="7">
-        <v>272341</v>
+        <v>111532</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -3616,10 +3616,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>745</v>
+        <v>309</v>
       </c>
       <c r="N9" s="7">
-        <v>591978</v>
+        <v>235252</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -3633,16 +3633,16 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>154</v>
+        <v>376</v>
       </c>
       <c r="D10" s="7">
-        <v>122882</v>
+        <v>318581</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>153</v>
@@ -3654,25 +3654,25 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>151</v>
+        <v>363</v>
       </c>
       <c r="I10" s="7">
-        <v>109871</v>
+        <v>268582</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="M10" s="7">
-        <v>305</v>
+        <v>739</v>
       </c>
       <c r="N10" s="7">
-        <v>232753</v>
+        <v>587163</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>156</v>
@@ -3693,7 +3693,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>838</v>
+        <v>1056</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>159</v>
@@ -3705,25 +3705,25 @@
         <v>160</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I11" s="7">
-        <v>1661</v>
+        <v>3759</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>47</v>
+        <v>161</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>161</v>
+        <v>109</v>
       </c>
       <c r="M11" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N11" s="7">
-        <v>2499</v>
+        <v>4815</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>162</v>
@@ -3741,10 +3741,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>155</v>
+        <v>377</v>
       </c>
       <c r="D12" s="7">
-        <v>123720</v>
+        <v>319637</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -3756,10 +3756,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>154</v>
+        <v>368</v>
       </c>
       <c r="I12" s="7">
-        <v>111532</v>
+        <v>272341</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -3771,10 +3771,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>309</v>
+        <v>745</v>
       </c>
       <c r="N12" s="7">
-        <v>235252</v>
+        <v>591978</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>

--- a/data/trans_orig/IP19C06-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP19C06-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2571C604-5756-4D0E-9928-7867B38E7463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B816176-ED8E-4A3D-9A9A-989470E45AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{4F6B45FC-B47D-42A7-B92D-B8F3E20E889F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DBBCF14F-1AF7-4049-9393-894E9550A0A1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="199">
   <si>
     <t>Menores según su última visita al dentista fue por tratamiento de las enfermedades de las encias en 2007 (Tasa respuesta: 50,71%)</t>
   </si>
@@ -68,7 +68,25 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
   </si>
   <si>
     <t>No</t>
@@ -77,511 +95,547 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>94,04%</t>
+    <t>55,59%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>5/9</t>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por tratamiento de las enfermedades de las encias en 2012 (Tasa respuesta: 48,98%)</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por tratamiento de las enfermedades de las encias en 2015 (Tasa respuesta: 48,78%)</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por tratamiento de las enfermedades de las encias en 2023 (Tasa respuesta: 58,54%)</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
   </si>
   <si>
     <t>98,88%</t>
   </si>
   <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por tratamiento de las enfermedades de las encias en 2012 (Tasa respuesta: 48,98%)</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
     <t>97,09%</t>
   </si>
   <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por tratamiento de las enfermedades de las encias en 2015 (Tasa respuesta: 48,78%)</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
   </si>
   <si>
     <t>98,54%</t>
   </si>
   <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por tratamiento de las enfermedades de las encias en 2023 (Tasa respuesta: 58,54%)</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
     <t>98,55%</t>
   </si>
   <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
+    <t>98,47%</t>
   </si>
 </sst>
 </file>
@@ -592,7 +646,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -688,39 +742,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -772,7 +826,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -883,13 +937,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -898,6 +945,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -962,19 +1016,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B032502-6D40-4D73-A528-2327D1A86A3C}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EAE8322-A1BF-45B0-B1C6-DEDE008FBE97}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1091,10 +1165,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>19635</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1106,34 +1180,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>22230</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M4" s="7">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>41865</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1142,10 +1216,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>1893</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1157,34 +1231,34 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>3906</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>5799</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1193,49 +1267,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>19635</v>
+        <v>1893</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="I6" s="7">
-        <v>22230</v>
+        <v>3906</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="N6" s="7">
-        <v>41865</v>
+        <v>5799</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1246,49 +1320,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>111716</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H7" s="7">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>106070</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M7" s="7">
-        <v>327</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>217786</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1297,49 +1371,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>80418</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>84335</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>164753</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1348,49 +1422,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="D9" s="7">
-        <v>111716</v>
+        <v>80418</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="I9" s="7">
-        <v>106070</v>
+        <v>84335</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>327</v>
+        <v>250</v>
       </c>
       <c r="N9" s="7">
-        <v>217786</v>
+        <v>164753</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1401,49 +1475,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>342</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>229161</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="7">
-        <v>330</v>
-      </c>
-      <c r="I10" s="7">
-        <v>222630</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10" s="7">
-        <v>672</v>
-      </c>
-      <c r="N10" s="7">
-        <v>451791</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1452,49 +1526,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="D11" s="7">
-        <v>1219</v>
+        <v>105719</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>99193</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>306</v>
       </c>
       <c r="N11" s="7">
-        <v>1219</v>
+        <v>204912</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1503,102 +1577,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>344</v>
+        <v>158</v>
       </c>
       <c r="D12" s="7">
-        <v>230380</v>
+        <v>105719</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>330</v>
+        <v>148</v>
       </c>
       <c r="I12" s="7">
-        <v>222630</v>
+        <v>99193</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>674</v>
+        <v>306</v>
       </c>
       <c r="N12" s="7">
-        <v>453010</v>
+        <v>204912</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>543</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>360512</v>
+        <v>1219</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M13" s="7">
+        <v>2</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1219</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="P13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="7">
-        <v>522</v>
-      </c>
-      <c r="I13" s="7">
-        <v>350930</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M13" s="7">
-        <v>1065</v>
-      </c>
-      <c r="N13" s="7">
-        <v>711442</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1607,49 +1681,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="D14" s="7">
-        <v>1219</v>
+        <v>172482</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>46</v>
-      </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>163497</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>2</v>
+        <v>500</v>
       </c>
       <c r="N14" s="7">
-        <v>1219</v>
+        <v>335978</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1658,55 +1732,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>261</v>
+      </c>
+      <c r="D15" s="7">
+        <v>173701</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>241</v>
+      </c>
+      <c r="I15" s="7">
+        <v>163497</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>502</v>
+      </c>
+      <c r="N15" s="7">
+        <v>337197</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>2</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1219</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M16" s="7">
+        <v>2</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1219</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>543</v>
+      </c>
+      <c r="D17" s="7">
+        <v>360512</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="7">
+        <v>522</v>
+      </c>
+      <c r="I17" s="7">
+        <v>350930</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1065</v>
+      </c>
+      <c r="N17" s="7">
+        <v>711442</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>545</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>361731</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>522</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>350930</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>1067</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>712661</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1719,8 +1954,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64792F1F-84CB-4D69-B2EA-A46BFF059A3C}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{405403EB-48BA-428A-BB8B-7C6CC7A10CCD}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1736,7 +1971,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1837,49 +2072,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>13707</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="H4" s="7">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>15111</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="M4" s="7">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>28817</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1888,49 +2123,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>669</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" s="7">
-        <v>582</v>
+        <v>3298</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="7">
+        <v>6</v>
+      </c>
+      <c r="N5" s="7">
+        <v>3967</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M5" s="7">
-        <v>1</v>
-      </c>
-      <c r="N5" s="7">
-        <v>582</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1939,49 +2174,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>13707</v>
+        <v>669</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="I6" s="7">
-        <v>15693</v>
+        <v>3298</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="N6" s="7">
-        <v>29399</v>
+        <v>3967</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1992,49 +2227,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>131936</v>
+        <v>742</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="H7" s="7">
-        <v>174</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>124427</v>
+        <v>582</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="M7" s="7">
-        <v>354</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>256364</v>
+        <v>1324</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2043,49 +2278,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="D8" s="7">
-        <v>742</v>
+        <v>91322</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>109</v>
       </c>
       <c r="I8" s="7">
-        <v>698</v>
+        <v>77106</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="M8" s="7">
-        <v>2</v>
+        <v>232</v>
       </c>
       <c r="N8" s="7">
-        <v>1440</v>
+        <v>168427</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2094,49 +2329,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>181</v>
+        <v>124</v>
       </c>
       <c r="D9" s="7">
-        <v>132678</v>
+        <v>92064</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>175</v>
+        <v>110</v>
       </c>
       <c r="I9" s="7">
-        <v>125125</v>
+        <v>77688</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>356</v>
+        <v>234</v>
       </c>
       <c r="N9" s="7">
-        <v>257804</v>
+        <v>169751</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2147,49 +2382,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>322</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>218136</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="H10" s="7">
-        <v>302</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>211223</v>
+        <v>698</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M10" s="7">
-        <v>624</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>429359</v>
+        <v>698</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2198,49 +2433,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>190</v>
       </c>
       <c r="D11" s="7">
-        <v>1481</v>
+        <v>132086</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="7">
+        <v>177</v>
+      </c>
+      <c r="I11" s="7">
+        <v>124388</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H11" s="7">
-        <v>3</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1950</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="M11" s="7">
-        <v>5</v>
+        <v>367</v>
       </c>
       <c r="N11" s="7">
-        <v>3431</v>
+        <v>256474</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2249,102 +2484,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>324</v>
+        <v>190</v>
       </c>
       <c r="D12" s="7">
-        <v>219617</v>
+        <v>132086</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>305</v>
+        <v>178</v>
       </c>
       <c r="I12" s="7">
-        <v>213173</v>
+        <v>125086</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>629</v>
+        <v>368</v>
       </c>
       <c r="N12" s="7">
-        <v>432790</v>
+        <v>257172</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>521</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>363779</v>
+        <v>1481</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>85</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="H13" s="7">
-        <v>499</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>350761</v>
+        <v>1950</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M13" s="7">
-        <v>1020</v>
+        <v>5</v>
       </c>
       <c r="N13" s="7">
-        <v>714540</v>
+        <v>3431</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2353,49 +2588,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>207</v>
       </c>
       <c r="D14" s="7">
-        <v>2223</v>
+        <v>139702</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="H14" s="7">
-        <v>5</v>
+        <v>208</v>
       </c>
       <c r="I14" s="7">
-        <v>3230</v>
+        <v>145970</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M14" s="7">
-        <v>8</v>
+        <v>415</v>
       </c>
       <c r="N14" s="7">
-        <v>5452</v>
+        <v>285672</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2404,55 +2639,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>209</v>
+      </c>
+      <c r="D15" s="7">
+        <v>141183</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>211</v>
+      </c>
+      <c r="I15" s="7">
+        <v>147920</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>420</v>
+      </c>
+      <c r="N15" s="7">
+        <v>289103</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>3</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2223</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16" s="7">
+        <v>5</v>
+      </c>
+      <c r="I16" s="7">
+        <v>3230</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="M16" s="7">
+        <v>8</v>
+      </c>
+      <c r="N16" s="7">
+        <v>5452</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>521</v>
+      </c>
+      <c r="D17" s="7">
+        <v>363779</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="7">
+        <v>499</v>
+      </c>
+      <c r="I17" s="7">
+        <v>350761</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1020</v>
+      </c>
+      <c r="N17" s="7">
+        <v>714540</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>524</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>366002</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>504</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>353991</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>1028</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>719992</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2465,8 +2861,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED8DCE60-84F3-4CAA-9561-39914F101E5B}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{115F444B-72CA-44AD-B756-AF89B798A5F0}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2482,7 +2878,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2583,46 +2979,46 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>9743</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="H4" s="7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>10631</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M4" s="7">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>20374</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -2634,40 +3030,40 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>1284</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>536</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>1819</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
@@ -2676,7 +3072,7 @@
         <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2685,49 +3081,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>9743</v>
+        <v>1284</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>10631</v>
+        <v>536</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="N6" s="7">
-        <v>20374</v>
+        <v>1819</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2738,49 +3134,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>133666</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="H7" s="7">
-        <v>195</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>129033</v>
+        <v>771</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="M7" s="7">
-        <v>386</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>262699</v>
+        <v>771</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2789,49 +3185,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>82129</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="I8" s="7">
-        <v>771</v>
+        <v>67289</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>109</v>
-      </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>221</v>
       </c>
       <c r="N8" s="7">
-        <v>771</v>
+        <v>149418</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2840,49 +3236,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>191</v>
+        <v>118</v>
       </c>
       <c r="D9" s="7">
-        <v>133666</v>
+        <v>82129</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>196</v>
+        <v>104</v>
       </c>
       <c r="I9" s="7">
-        <v>129804</v>
+        <v>68060</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>387</v>
+        <v>222</v>
       </c>
       <c r="N9" s="7">
-        <v>263470</v>
+        <v>150189</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2893,49 +3289,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>303</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>223900</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="H10" s="7">
-        <v>313</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>221565</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>114</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="M10" s="7">
-        <v>616</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>445465</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2944,49 +3340,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>207</v>
       </c>
       <c r="D11" s="7">
-        <v>700</v>
+        <v>149341</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="7">
+        <v>214</v>
+      </c>
+      <c r="I11" s="7">
+        <v>148917</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>617</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>119</v>
-      </c>
       <c r="K11" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="7">
+        <v>421</v>
+      </c>
+      <c r="N11" s="7">
+        <v>298258</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="M11" s="7">
-        <v>2</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1317</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>129</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>121</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2995,102 +3391,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>304</v>
+        <v>207</v>
       </c>
       <c r="D12" s="7">
-        <v>224600</v>
+        <v>149341</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>314</v>
+        <v>214</v>
       </c>
       <c r="I12" s="7">
-        <v>222182</v>
+        <v>148917</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>618</v>
+        <v>421</v>
       </c>
       <c r="N12" s="7">
-        <v>446782</v>
+        <v>298258</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>509</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>367308</v>
+        <v>700</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="H13" s="7">
-        <v>525</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>361230</v>
+        <v>617</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="M13" s="7">
-        <v>1034</v>
+        <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>728538</v>
+        <v>1317</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3099,49 +3495,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>182</v>
       </c>
       <c r="D14" s="7">
-        <v>700</v>
+        <v>134555</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>127</v>
-      </c>
       <c r="H14" s="7">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="I14" s="7">
-        <v>1388</v>
+        <v>144488</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>129</v>
-      </c>
       <c r="M14" s="7">
-        <v>3</v>
+        <v>389</v>
       </c>
       <c r="N14" s="7">
-        <v>2088</v>
+        <v>279043</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3150,55 +3546,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>183</v>
+      </c>
+      <c r="D15" s="7">
+        <v>135255</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>208</v>
+      </c>
+      <c r="I15" s="7">
+        <v>145105</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>391</v>
+      </c>
+      <c r="N15" s="7">
+        <v>280360</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7">
+        <v>700</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H16" s="7">
+        <v>2</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1388</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="M16" s="7">
+        <v>3</v>
+      </c>
+      <c r="N16" s="7">
+        <v>2088</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>509</v>
+      </c>
+      <c r="D17" s="7">
+        <v>367308</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="7">
+        <v>525</v>
+      </c>
+      <c r="I17" s="7">
+        <v>361230</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1034</v>
+      </c>
+      <c r="N17" s="7">
+        <v>728538</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>510</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>368008</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>527</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>362618</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>1037</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>730626</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3211,8 +3768,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B8298A3-D5E1-4CC1-8DBE-F0EC02431ED4}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D0A344D-46FA-49C2-9B85-16B764302420}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3228,7 +3785,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3329,49 +3886,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>21445</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="H4" s="7">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>15760</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>150</v>
       </c>
       <c r="M4" s="7">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>37205</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3380,49 +3937,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>5284</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>152</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I5" s="7">
-        <v>391</v>
+        <v>5917</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="7">
+        <v>19</v>
+      </c>
+      <c r="N5" s="7">
+        <v>11201</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="M5" s="7">
-        <v>1</v>
-      </c>
-      <c r="N5" s="7">
-        <v>391</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>139</v>
-      </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>154</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>140</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3431,49 +3988,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D6" s="7">
-        <v>21445</v>
+        <v>5284</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="I6" s="7">
-        <v>16151</v>
+        <v>5917</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="N6" s="7">
-        <v>37596</v>
+        <v>11201</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3484,49 +4041,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>154</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>122882</v>
+        <v>838</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>142</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="H7" s="7">
-        <v>151</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>109871</v>
+        <v>933</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="M7" s="7">
-        <v>305</v>
+        <v>3</v>
       </c>
       <c r="N7" s="7">
-        <v>232753</v>
+        <v>1771</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3535,49 +4092,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="D8" s="7">
-        <v>838</v>
+        <v>72544</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>148</v>
-      </c>
       <c r="H8" s="7">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="I8" s="7">
-        <v>1661</v>
+        <v>66137</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>149</v>
+        <v>17</v>
       </c>
       <c r="M8" s="7">
-        <v>4</v>
+        <v>208</v>
       </c>
       <c r="N8" s="7">
-        <v>2499</v>
+        <v>138681</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>150</v>
+        <v>84</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3586,49 +4143,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="D9" s="7">
-        <v>123720</v>
+        <v>73382</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>154</v>
+        <v>103</v>
       </c>
       <c r="I9" s="7">
-        <v>111532</v>
+        <v>67070</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="N9" s="7">
-        <v>235252</v>
+        <v>140452</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3639,49 +4196,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>376</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>318581</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>165</v>
       </c>
       <c r="H10" s="7">
-        <v>363</v>
+        <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>268582</v>
+        <v>2599</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>90</v>
+        <v>166</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>105</v>
+        <v>167</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="M10" s="7">
-        <v>739</v>
+        <v>4</v>
       </c>
       <c r="N10" s="7">
-        <v>587163</v>
+        <v>2599</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3690,49 +4247,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>186</v>
       </c>
       <c r="D11" s="7">
-        <v>1056</v>
+        <v>157207</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="7">
         <v>159</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="H11" s="7">
-        <v>5</v>
-      </c>
       <c r="I11" s="7">
-        <v>3759</v>
+        <v>121525</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>96</v>
+        <v>172</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>109</v>
+        <v>174</v>
       </c>
       <c r="M11" s="7">
-        <v>6</v>
+        <v>345</v>
       </c>
       <c r="N11" s="7">
-        <v>4815</v>
+        <v>278732</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3741,102 +4298,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>377</v>
+        <v>186</v>
       </c>
       <c r="D12" s="7">
-        <v>319637</v>
+        <v>157207</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>368</v>
+        <v>163</v>
       </c>
       <c r="I12" s="7">
-        <v>272341</v>
+        <v>124124</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>745</v>
+        <v>349</v>
       </c>
       <c r="N12" s="7">
-        <v>591978</v>
+        <v>281331</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>568</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>462909</v>
+        <v>1056</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>166</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>11</v>
+        <v>178</v>
       </c>
       <c r="H13" s="7">
-        <v>545</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>394213</v>
+        <v>2279</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="M13" s="7">
-        <v>1113</v>
+        <v>4</v>
       </c>
       <c r="N13" s="7">
-        <v>857121</v>
+        <v>3334</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3845,49 +4402,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>267</v>
       </c>
       <c r="D14" s="7">
-        <v>1894</v>
+        <v>227875</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>174</v>
-      </c>
       <c r="H14" s="7">
-        <v>9</v>
+        <v>274</v>
       </c>
       <c r="I14" s="7">
-        <v>5811</v>
+        <v>200633</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="M14" s="7">
-        <v>11</v>
+        <v>541</v>
       </c>
       <c r="N14" s="7">
-        <v>7705</v>
+        <v>428509</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>180</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3896,55 +4453,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>268</v>
+      </c>
+      <c r="D15" s="7">
+        <v>228931</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>277</v>
+      </c>
+      <c r="I15" s="7">
+        <v>202912</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>545</v>
+      </c>
+      <c r="N15" s="7">
+        <v>431843</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>2</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1894</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H16" s="7">
+        <v>9</v>
+      </c>
+      <c r="I16" s="7">
+        <v>5811</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M16" s="7">
+        <v>11</v>
+      </c>
+      <c r="N16" s="7">
+        <v>7705</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>568</v>
+      </c>
+      <c r="D17" s="7">
+        <v>462909</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="7">
+        <v>545</v>
+      </c>
+      <c r="I17" s="7">
+        <v>394213</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1113</v>
+      </c>
+      <c r="N17" s="7">
+        <v>857121</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>570</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>464803</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>554</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>400024</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>1124</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>864826</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP19C06-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP19C06-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B816176-ED8E-4A3D-9A9A-989470E45AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{64273928-8F32-4DC0-9827-599AAEE6A58C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DBBCF14F-1AF7-4049-9393-894E9550A0A1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F081444C-EE71-41E0-AFF8-4420678FB083}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="205">
   <si>
     <t>Menores según su última visita al dentista fue por tratamiento de las enfermedades de las encias en 2007 (Tasa respuesta: 50,71%)</t>
   </si>
@@ -155,7 +155,7 @@
     <t>0,7%</t>
   </si>
   <si>
-    <t>2,36%</t>
+    <t>2,5%</t>
   </si>
   <si>
     <t>0,79%</t>
@@ -164,13 +164,10 @@
     <t>0,36%</t>
   </si>
   <si>
-    <t>1,17%</t>
-  </si>
-  <si>
     <t>99,3%</t>
   </si>
   <si>
-    <t>97,64%</t>
+    <t>97,5%</t>
   </si>
   <si>
     <t>99,21%</t>
@@ -179,13 +176,10 @@
     <t>99,64%</t>
   </si>
   <si>
-    <t>98,83%</t>
-  </si>
-  <si>
     <t>0,34%</t>
   </si>
   <si>
-    <t>1,1%</t>
+    <t>1,25%</t>
   </si>
   <si>
     <t>0,37%</t>
@@ -194,13 +188,13 @@
     <t>0,17%</t>
   </si>
   <si>
-    <t>0,66%</t>
+    <t>0,56%</t>
   </si>
   <si>
     <t>99,66%</t>
   </si>
   <si>
-    <t>98,9%</t>
+    <t>98,75%</t>
   </si>
   <si>
     <t>99,63%</t>
@@ -209,7 +203,7 @@
     <t>99,83%</t>
   </si>
   <si>
-    <t>99,34%</t>
+    <t>99,44%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -233,340 +227,352 @@
     <t>0,81%</t>
   </si>
   <si>
-    <t>4,1%</t>
+    <t>4,37%</t>
   </si>
   <si>
     <t>0,75%</t>
   </si>
   <si>
-    <t>3,83%</t>
+    <t>4,05%</t>
   </si>
   <si>
     <t>0,78%</t>
   </si>
   <si>
-    <t>2,48%</t>
+    <t>2,79%</t>
   </si>
   <si>
     <t>99,19%</t>
   </si>
   <si>
-    <t>95,9%</t>
+    <t>95,63%</t>
   </si>
   <si>
     <t>99,25%</t>
   </si>
   <si>
-    <t>96,17%</t>
+    <t>95,95%</t>
   </si>
   <si>
     <t>99,22%</t>
   </si>
   <si>
-    <t>97,52%</t>
+    <t>97,21%</t>
   </si>
   <si>
     <t>1,0%</t>
   </si>
   <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
+    <t>2,86%</t>
   </si>
   <si>
     <t>0,27%</t>
   </si>
   <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por tratamiento de las enfermedades de las encias en 2016 (Tasa respuesta: 48,78%)</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por tratamiento de las enfermedades de las encias en 2023 (Tasa respuesta: 58,54%)</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
     <t>1,26%</t>
   </si>
   <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
   </si>
   <si>
     <t>98,74%</t>
   </si>
   <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por tratamiento de las enfermedades de las encias en 2015 (Tasa respuesta: 48,78%)</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por tratamiento de las enfermedades de las encias en 2023 (Tasa respuesta: 58,54%)</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
+    <t>96,27%</t>
   </si>
   <si>
     <t>99,72%</t>
   </si>
   <si>
-    <t>1,03%</t>
-  </si>
-  <si>
     <t>2,09%</t>
   </si>
   <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
   </si>
   <si>
     <t>0,24%</t>
   </si>
   <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
+    <t>2,31%</t>
   </si>
   <si>
     <t>97,91%</t>
   </si>
   <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
   </si>
   <si>
     <t>99,76%</t>
@@ -575,7 +581,7 @@
     <t>0,46%</t>
   </si>
   <si>
-    <t>2,81%</t>
+    <t>2,4%</t>
   </si>
   <si>
     <t>1,12%</t>
@@ -584,25 +590,28 @@
     <t>0,35%</t>
   </si>
   <si>
-    <t>2,91%</t>
+    <t>3,22%</t>
   </si>
   <si>
     <t>0,77%</t>
   </si>
   <si>
-    <t>1,81%</t>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
   </si>
   <si>
     <t>99,54%</t>
   </si>
   <si>
-    <t>97,19%</t>
+    <t>97,6%</t>
   </si>
   <si>
     <t>98,88%</t>
   </si>
   <si>
-    <t>97,09%</t>
+    <t>96,78%</t>
   </si>
   <si>
     <t>99,65%</t>
@@ -611,31 +620,40 @@
     <t>99,23%</t>
   </si>
   <si>
-    <t>98,19%</t>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
   </si>
   <si>
     <t>0,41%</t>
   </si>
   <si>
-    <t>1,46%</t>
+    <t>1,44%</t>
   </si>
   <si>
     <t>1,45%</t>
   </si>
   <si>
-    <t>1,53%</t>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
   </si>
   <si>
     <t>99,59%</t>
   </si>
   <si>
-    <t>98,54%</t>
+    <t>98,56%</t>
   </si>
   <si>
     <t>98,55%</t>
   </si>
   <si>
-    <t>98,47%</t>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
   </si>
 </sst>
 </file>
@@ -1047,7 +1065,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EAE8322-A1BF-45B0-B1C6-DEDE008FBE97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8642C64-72BD-4909-B2C0-E6B2CC2E51D1}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1672,7 +1690,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1687,10 +1705,10 @@
         <v>172482</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
@@ -1705,7 +1723,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -1717,10 +1735,10 @@
         <v>335978</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>17</v>
@@ -1791,13 +1809,13 @@
         <v>1219</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1812,7 +1830,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -1821,13 +1839,13 @@
         <v>1219</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1842,10 +1860,10 @@
         <v>360512</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
@@ -1860,7 +1878,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -1872,10 +1890,10 @@
         <v>711442</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>17</v>
@@ -1934,7 +1952,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1954,7 +1972,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{405403EB-48BA-428A-BB8B-7C6CC7A10CCD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AA4E49F-FB30-44AA-A6C3-30A878F51EB8}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1971,7 +1989,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2084,7 +2102,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2099,7 +2117,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2132,7 +2150,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -2147,7 +2165,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2233,13 +2251,13 @@
         <v>742</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -2248,13 +2266,13 @@
         <v>582</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -2263,13 +2281,13 @@
         <v>1324</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2284,10 +2302,10 @@
         <v>91322</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -2299,10 +2317,10 @@
         <v>77106</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -2314,10 +2332,10 @@
         <v>168427</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -2394,7 +2412,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2403,13 +2421,13 @@
         <v>698</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -2418,13 +2436,13 @@
         <v>698</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2442,7 +2460,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -2454,10 +2472,10 @@
         <v>124388</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>17</v>
@@ -2469,10 +2487,10 @@
         <v>256474</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>17</v>
@@ -2543,13 +2561,13 @@
         <v>1481</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -2558,13 +2576,13 @@
         <v>1950</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -2573,13 +2591,13 @@
         <v>3431</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2594,10 +2612,10 @@
         <v>139702</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
@@ -2609,13 +2627,13 @@
         <v>145970</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>415</v>
@@ -2624,13 +2642,13 @@
         <v>285672</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2698,13 +2716,13 @@
         <v>2223</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -2713,13 +2731,13 @@
         <v>3230</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -2731,10 +2749,10 @@
         <v>25</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2749,13 +2767,13 @@
         <v>363779</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H17" s="7">
         <v>499</v>
@@ -2764,13 +2782,13 @@
         <v>350761</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="M17" s="7">
         <v>1020</v>
@@ -2782,10 +2800,10 @@
         <v>28</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2841,7 +2859,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2861,7 +2879,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{115F444B-72CA-44AD-B756-AF89B798A5F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAFA715C-C5EC-42EF-8248-8DF4D5D068E0}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2878,7 +2896,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2991,7 +3009,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3006,7 +3024,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3039,7 +3057,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3054,7 +3072,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3146,7 +3164,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -3155,13 +3173,13 @@
         <v>771</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -3170,13 +3188,13 @@
         <v>771</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3194,7 +3212,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -3206,10 +3224,10 @@
         <v>67289</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -3221,10 +3239,10 @@
         <v>149418</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -3301,7 +3319,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3316,7 +3334,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3331,7 +3349,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3349,7 +3367,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -3364,7 +3382,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -3379,7 +3397,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -3450,13 +3468,13 @@
         <v>700</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3465,13 +3483,13 @@
         <v>617</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -3480,13 +3498,13 @@
         <v>1317</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3516,10 +3534,10 @@
         <v>144488</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>17</v>
@@ -3531,10 +3549,10 @@
         <v>279043</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>17</v>
@@ -3605,13 +3623,13 @@
         <v>700</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -3620,13 +3638,13 @@
         <v>1388</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>141</v>
+        <v>76</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -3635,13 +3653,13 @@
         <v>2088</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>142</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3656,10 +3674,10 @@
         <v>367308</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
@@ -3671,10 +3689,10 @@
         <v>361230</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>17</v>
@@ -3686,13 +3704,13 @@
         <v>728538</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>28</v>
+        <v>147</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>147</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3748,7 +3766,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -3768,7 +3786,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D0A344D-46FA-49C2-9B85-16B764302420}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F63A6AB-89EA-4880-A750-C43B6C684DD5}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4047,13 +4065,13 @@
         <v>838</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4062,13 +4080,13 @@
         <v>933</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -4077,13 +4095,13 @@
         <v>1771</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>79</v>
+        <v>159</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4098,10 +4116,10 @@
         <v>72544</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -4113,10 +4131,10 @@
         <v>66137</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -4128,13 +4146,13 @@
         <v>138681</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4208,7 +4226,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -4217,13 +4235,13 @@
         <v>2599</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -4232,13 +4250,13 @@
         <v>2599</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4256,7 +4274,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -4268,13 +4286,13 @@
         <v>121525</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M11" s="7">
         <v>345</v>
@@ -4283,13 +4301,13 @@
         <v>278732</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4357,13 +4375,13 @@
         <v>1056</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -4372,13 +4390,13 @@
         <v>2279</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -4387,13 +4405,13 @@
         <v>3334</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>138</v>
+        <v>185</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4408,10 +4426,10 @@
         <v>227875</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
@@ -4423,13 +4441,13 @@
         <v>200633</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M14" s="7">
         <v>541</v>
@@ -4438,13 +4456,13 @@
         <v>428509</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>143</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4512,13 +4530,13 @@
         <v>1894</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -4527,13 +4545,13 @@
         <v>5811</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>32</v>
+        <v>198</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>199</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -4542,13 +4560,13 @@
         <v>7705</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>194</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4563,10 +4581,10 @@
         <v>462909</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
@@ -4578,13 +4596,13 @@
         <v>394213</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>203</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>35</v>
+        <v>204</v>
       </c>
       <c r="M17" s="7">
         <v>1113</v>
@@ -4593,13 +4611,13 @@
         <v>857121</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>198</v>
+        <v>117</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4655,7 +4673,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP19C06-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP19C06-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64273928-8F32-4DC0-9827-599AAEE6A58C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{077F9C02-BDBD-418F-A448-E0FFDB023D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F081444C-EE71-41E0-AFF8-4420678FB083}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{3E3831D9-C720-48B4-8B95-1CFEDF7E1314}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="207">
   <si>
     <t>Menores según su última visita al dentista fue por tratamiento de las enfermedades de las encias en 2007 (Tasa respuesta: 50,71%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -80,12 +80,12 @@
     <t>0%</t>
   </si>
   <si>
+    <t>26,42%</t>
+  </si>
+  <si>
     <t>44,41%</t>
   </si>
   <si>
-    <t>26,42%</t>
-  </si>
-  <si>
     <t>18,74%</t>
   </si>
   <si>
@@ -95,277 +95,289 @@
     <t>100,0%</t>
   </si>
   <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>55,59%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
     <t>81,26%</t>
   </si>
   <si>
     <t>3-7</t>
   </si>
   <si>
+    <t>1,5%</t>
+  </si>
+  <si>
     <t>1,55%</t>
   </si>
   <si>
-    <t>1,5%</t>
-  </si>
-  <si>
     <t>0,76%</t>
   </si>
   <si>
+    <t>98,5%</t>
+  </si>
+  <si>
     <t>98,45%</t>
   </si>
   <si>
-    <t>98,5%</t>
-  </si>
-  <si>
     <t>99,24%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
+    <t>1,29%</t>
+  </si>
+  <si>
     <t>1,21%</t>
   </si>
   <si>
-    <t>1,29%</t>
-  </si>
-  <si>
     <t>0,63%</t>
   </si>
   <si>
+    <t>98,71%</t>
+  </si>
+  <si>
     <t>98,79%</t>
   </si>
   <si>
-    <t>98,71%</t>
-  </si>
-  <si>
     <t>99,37%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
+    <t>0,79%</t>
+  </si>
+  <si>
     <t>0,7%</t>
   </si>
   <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
+    <t>2,61%</t>
   </si>
   <si>
     <t>0,36%</t>
   </si>
   <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
     <t>99,3%</t>
   </si>
   <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
+    <t>97,39%</t>
   </si>
   <si>
     <t>99,64%</t>
   </si>
   <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
     <t>0,34%</t>
   </si>
   <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
+    <t>1,2%</t>
   </si>
   <si>
     <t>0,17%</t>
   </si>
   <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por tratamiento de las enfermedades de las encias en 2012 (Tasa respuesta: 48,98%)</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
     <t>0,56%</t>
   </si>
   <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
   </si>
   <si>
     <t>99,44%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por tratamiento de las enfermedades de las encias en 2012 (Tasa respuesta: 48,98%)</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
+    <t>97,44%</t>
   </si>
   <si>
     <t>99,0%</t>
   </si>
   <si>
-    <t>97,14%</t>
-  </si>
-  <si>
     <t>99,73%</t>
   </si>
   <si>
     <t>98,64%</t>
   </si>
   <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
     <t>1,05%</t>
   </si>
   <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
+    <t>3,82%</t>
   </si>
   <si>
     <t>1,19%</t>
   </si>
   <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
   </si>
   <si>
     <t>98,95%</t>
   </si>
   <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
+    <t>96,18%</t>
   </si>
   <si>
     <t>98,81%</t>
   </si>
   <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
   </si>
   <si>
     <t>0,61%</t>
   </si>
   <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
   </si>
   <si>
     <t>99,39%</t>
   </si>
   <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
   </si>
   <si>
     <t>Menores según su última visita al dentista fue por tratamiento de las enfermedades de las encias en 2016 (Tasa respuesta: 48,78%)</t>
@@ -377,283 +389,277 @@
     <t>43,07%</t>
   </si>
   <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
     <t>1,61%</t>
   </si>
   <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
     <t>0,51%</t>
   </si>
   <si>
-    <t>2,55%</t>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
   </si>
   <si>
     <t>98,39%</t>
   </si>
   <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
     <t>99,49%</t>
   </si>
   <si>
-    <t>97,45%</t>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
   </si>
   <si>
     <t>0,92%</t>
   </si>
   <si>
-    <t>0,89%</t>
-  </si>
-  <si>
     <t>0,45%</t>
   </si>
   <si>
+    <t>99,11%</t>
+  </si>
+  <si>
     <t>99,08%</t>
   </si>
   <si>
-    <t>99,11%</t>
-  </si>
-  <si>
     <t>99,55%</t>
   </si>
   <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
     <t>0,52%</t>
   </si>
   <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
+    <t>2,63%</t>
   </si>
   <si>
     <t>0,47%</t>
   </si>
   <si>
-    <t>1,64%</t>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
   </si>
   <si>
     <t>99,48%</t>
   </si>
   <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
+    <t>97,37%</t>
   </si>
   <si>
     <t>99,53%</t>
   </si>
   <si>
-    <t>98,36%</t>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
   </si>
   <si>
     <t>0,19%</t>
   </si>
   <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por tratamiento de las enfermedades de las encias en 2023 (Tasa respuesta: 58,54%)</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
     <t>1,03%</t>
   </si>
   <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
   </si>
   <si>
     <t>98,97%</t>
   </si>
   <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por tratamiento de las enfermedades de las encias en 2023 (Tasa respuesta: 58,54%)</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
   </si>
   <si>
     <t>1,14%</t>
   </si>
   <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
   </si>
   <si>
     <t>98,86%</t>
   </si>
   <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
   </si>
 </sst>
 </file>
@@ -1065,7 +1071,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8642C64-72BD-4909-B2C0-E6B2CC2E51D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BAB4819-307D-4DD1-8A1F-FFE01B884ADD}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1234,10 +1240,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D5" s="7">
-        <v>1893</v>
+        <v>3906</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1249,10 +1255,10 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>3906</v>
+        <v>1893</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
@@ -1285,25 +1291,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>6</v>
+      </c>
+      <c r="D6" s="7">
+        <v>3906</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>3</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>1893</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>6</v>
-      </c>
-      <c r="I6" s="7">
-        <v>3906</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -1389,10 +1395,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D8" s="7">
-        <v>80418</v>
+        <v>84335</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
@@ -1404,10 +1410,10 @@
         <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I8" s="7">
-        <v>84335</v>
+        <v>80418</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
@@ -1440,25 +1446,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>127</v>
+      </c>
+      <c r="D9" s="7">
+        <v>84335</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>123</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>80418</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>127</v>
-      </c>
-      <c r="I9" s="7">
-        <v>84335</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1544,10 +1550,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D11" s="7">
-        <v>105719</v>
+        <v>99193</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
@@ -1559,10 +1565,10 @@
         <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="I11" s="7">
-        <v>99193</v>
+        <v>105719</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
@@ -1595,25 +1601,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>148</v>
+      </c>
+      <c r="D12" s="7">
+        <v>99193</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>158</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>105719</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>148</v>
-      </c>
-      <c r="I12" s="7">
-        <v>99193</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -1648,31 +1654,31 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="7">
         <v>2</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>1219</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>39</v>
@@ -1690,7 +1696,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1699,34 +1705,34 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="D14" s="7">
-        <v>172482</v>
+        <v>163497</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="I14" s="7">
-        <v>163497</v>
+        <v>172482</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M14" s="7">
         <v>500</v>
@@ -1735,10 +1741,10 @@
         <v>335978</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>17</v>
@@ -1750,25 +1756,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>241</v>
+      </c>
+      <c r="D15" s="7">
+        <v>163497</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>261</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>173701</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>241</v>
-      </c>
-      <c r="I15" s="7">
-        <v>163497</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -1803,34 +1809,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="7">
         <v>2</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>1219</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -1839,13 +1845,13 @@
         <v>1219</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1854,34 +1860,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>522</v>
+      </c>
+      <c r="D17" s="7">
+        <v>350930</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="7">
         <v>543</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>360512</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="7">
-        <v>522</v>
-      </c>
-      <c r="I17" s="7">
-        <v>350930</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M17" s="7">
         <v>1065</v>
@@ -1890,10 +1896,10 @@
         <v>711442</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>17</v>
@@ -1905,25 +1911,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>522</v>
+      </c>
+      <c r="D18" s="7">
+        <v>350930</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>545</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>361731</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>522</v>
-      </c>
-      <c r="I18" s="7">
-        <v>350930</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -1952,7 +1958,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1972,7 +1978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AA4E49F-FB30-44AA-A6C3-30A878F51EB8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{686307D7-5E8F-4B37-94FC-4605A5E6F8E5}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1989,7 +1995,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2102,7 +2108,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2117,7 +2123,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2132,7 +2138,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2141,31 +2147,31 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
+        <v>5</v>
+      </c>
+      <c r="D5" s="7">
+        <v>3298</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
         <v>1</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>669</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="7">
-        <v>5</v>
-      </c>
-      <c r="I5" s="7">
-        <v>3298</v>
-      </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2180,7 +2186,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2192,25 +2198,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>5</v>
+      </c>
+      <c r="D6" s="7">
+        <v>3298</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>1</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>669</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>5</v>
-      </c>
-      <c r="I6" s="7">
-        <v>3298</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -2248,31 +2254,31 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>742</v>
+        <v>582</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>582</v>
+        <v>742</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -2281,13 +2287,13 @@
         <v>1324</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2296,31 +2302,31 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
+        <v>109</v>
+      </c>
+      <c r="D8" s="7">
+        <v>77106</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="7">
         <v>123</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>91322</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="7">
-        <v>109</v>
-      </c>
-      <c r="I8" s="7">
-        <v>77106</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -2332,10 +2338,10 @@
         <v>168427</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -2347,25 +2353,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>110</v>
+      </c>
+      <c r="D9" s="7">
+        <v>77688</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>124</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>92064</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>110</v>
-      </c>
-      <c r="I9" s="7">
-        <v>77688</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -2400,34 +2406,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>698</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>698</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -2436,13 +2442,13 @@
         <v>698</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2451,34 +2457,34 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>177</v>
+      </c>
+      <c r="D11" s="7">
+        <v>124388</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="7">
         <v>190</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>132086</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="7">
-        <v>177</v>
-      </c>
-      <c r="I11" s="7">
-        <v>124388</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
         <v>367</v>
@@ -2487,10 +2493,10 @@
         <v>256474</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>17</v>
@@ -2502,25 +2508,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>178</v>
+      </c>
+      <c r="D12" s="7">
+        <v>125086</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>190</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>132086</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>178</v>
-      </c>
-      <c r="I12" s="7">
-        <v>125086</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -2555,34 +2561,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>3</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1950</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" s="7">
         <v>2</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>1481</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H13" s="7">
-        <v>3</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1950</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -2591,13 +2597,13 @@
         <v>3431</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2606,34 +2612,34 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
+        <v>208</v>
+      </c>
+      <c r="D14" s="7">
+        <v>145970</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" s="7">
         <v>207</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>139702</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="7">
-        <v>208</v>
-      </c>
-      <c r="I14" s="7">
-        <v>145970</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="M14" s="7">
         <v>415</v>
@@ -2642,13 +2648,13 @@
         <v>285672</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2657,25 +2663,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>211</v>
+      </c>
+      <c r="D15" s="7">
+        <v>147920</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>209</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>141183</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>211</v>
-      </c>
-      <c r="I15" s="7">
-        <v>147920</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -2710,34 +2716,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>5</v>
+      </c>
+      <c r="D16" s="7">
+        <v>3230</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H16" s="7">
         <v>3</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>2223</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H16" s="7">
-        <v>5</v>
-      </c>
-      <c r="I16" s="7">
-        <v>3230</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -2749,10 +2755,10 @@
         <v>25</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2761,49 +2767,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>499</v>
+      </c>
+      <c r="D17" s="7">
+        <v>350761</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H17" s="7">
         <v>521</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>363779</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" s="7">
-        <v>499</v>
-      </c>
-      <c r="I17" s="7">
-        <v>350761</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="M17" s="7">
         <v>1020</v>
       </c>
       <c r="N17" s="7">
-        <v>714540</v>
+        <v>714541</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>28</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2812,25 +2818,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>504</v>
+      </c>
+      <c r="D18" s="7">
+        <v>353991</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>524</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>366002</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>504</v>
-      </c>
-      <c r="I18" s="7">
-        <v>353991</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -2845,7 +2851,7 @@
         <v>1028</v>
       </c>
       <c r="N18" s="7">
-        <v>719992</v>
+        <v>719993</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -2859,7 +2865,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2879,7 +2885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAFA715C-C5EC-42EF-8248-8DF4D5D068E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58DFB9D0-02EC-4EE5-8D5A-48D0FDE1ADB3}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2896,7 +2902,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3009,7 +3015,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3024,7 +3030,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3039,7 +3045,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3048,31 +3054,31 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>536</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
         <v>2</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>1284</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>536</v>
-      </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3087,7 +3093,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -3099,25 +3105,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>536</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>2</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>1284</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>1</v>
-      </c>
-      <c r="I6" s="7">
-        <v>536</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -3152,34 +3158,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>771</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7">
-        <v>771</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -3188,13 +3194,13 @@
         <v>771</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3203,34 +3209,34 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
+        <v>103</v>
+      </c>
+      <c r="D8" s="7">
+        <v>67289</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="7">
         <v>118</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>82129</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="7">
-        <v>103</v>
-      </c>
-      <c r="I8" s="7">
-        <v>67289</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>118</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
         <v>221</v>
@@ -3239,10 +3245,10 @@
         <v>149418</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -3254,25 +3260,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>104</v>
+      </c>
+      <c r="D9" s="7">
+        <v>68060</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>118</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>82129</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>104</v>
-      </c>
-      <c r="I9" s="7">
-        <v>68060</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3319,7 +3325,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3334,7 +3340,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3349,7 +3355,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3358,31 +3364,31 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>214</v>
+      </c>
+      <c r="D11" s="7">
+        <v>148917</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="7">
         <v>207</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>149341</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="7">
-        <v>214</v>
-      </c>
-      <c r="I11" s="7">
-        <v>148917</v>
-      </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -3397,7 +3403,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -3409,25 +3415,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>214</v>
+      </c>
+      <c r="D12" s="7">
+        <v>148917</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>207</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>149341</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>214</v>
-      </c>
-      <c r="I12" s="7">
-        <v>148917</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -3465,31 +3471,31 @@
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>700</v>
+        <v>617</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>617</v>
+        <v>700</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -3498,13 +3504,13 @@
         <v>1317</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3513,31 +3519,31 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
+        <v>207</v>
+      </c>
+      <c r="D14" s="7">
+        <v>144488</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="7">
         <v>182</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>134555</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="7">
-        <v>207</v>
-      </c>
-      <c r="I14" s="7">
-        <v>144488</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>17</v>
@@ -3549,10 +3555,10 @@
         <v>279043</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>17</v>
@@ -3564,25 +3570,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>208</v>
+      </c>
+      <c r="D15" s="7">
+        <v>145105</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>183</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>135255</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>208</v>
-      </c>
-      <c r="I15" s="7">
-        <v>145105</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3617,34 +3623,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>2</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1388</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H16" s="7">
         <v>1</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>700</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H16" s="7">
-        <v>2</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1388</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -3653,13 +3659,13 @@
         <v>2088</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>143</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3668,31 +3674,31 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>525</v>
+      </c>
+      <c r="D17" s="7">
+        <v>361230</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="7">
         <v>509</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>367308</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="7">
-        <v>525</v>
-      </c>
-      <c r="I17" s="7">
-        <v>361230</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>17</v>
@@ -3704,10 +3710,10 @@
         <v>728538</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>147</v>
+        <v>28</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>17</v>
@@ -3719,25 +3725,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>527</v>
+      </c>
+      <c r="D18" s="7">
+        <v>362618</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>510</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>368008</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>527</v>
-      </c>
-      <c r="I18" s="7">
-        <v>362618</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -3766,7 +3772,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -3786,7 +3792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F63A6AB-89EA-4880-A750-C43B6C684DD5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE6238D-76AD-4279-A96B-8148BB22D996}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3803,7 +3809,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3916,7 +3922,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3931,7 +3937,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3946,7 +3952,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3955,31 +3961,31 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
+        <v>11</v>
+      </c>
+      <c r="D5" s="7">
+        <v>5797</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
         <v>8</v>
       </c>
-      <c r="D5" s="7">
-        <v>5284</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="7">
-        <v>11</v>
-      </c>
       <c r="I5" s="7">
-        <v>5917</v>
+        <v>5316</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3988,13 +3994,13 @@
         <v>19</v>
       </c>
       <c r="N5" s="7">
-        <v>11201</v>
+        <v>11113</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -4006,25 +4012,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>11</v>
+      </c>
+      <c r="D6" s="7">
+        <v>5797</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>8</v>
       </c>
-      <c r="D6" s="7">
-        <v>5284</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>11</v>
-      </c>
       <c r="I6" s="7">
-        <v>5917</v>
+        <v>5316</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -4039,7 +4045,7 @@
         <v>19</v>
       </c>
       <c r="N6" s="7">
-        <v>11201</v>
+        <v>11113</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -4059,49 +4065,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="7">
+        <v>931</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="7">
-        <v>838</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="H7" s="7">
-        <v>2</v>
-      </c>
       <c r="I7" s="7">
-        <v>933</v>
+        <v>1045</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>157</v>
+        <v>41</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
       </c>
       <c r="N7" s="7">
-        <v>1771</v>
+        <v>1976</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>159</v>
+        <v>106</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4110,31 +4116,31 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
+        <v>101</v>
+      </c>
+      <c r="D8" s="7">
+        <v>65265</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="7">
         <v>107</v>
       </c>
-      <c r="D8" s="7">
-        <v>72544</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="7">
-        <v>101</v>
-      </c>
       <c r="I8" s="7">
-        <v>66137</v>
+        <v>76086</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>164</v>
+        <v>46</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -4143,10 +4149,10 @@
         <v>208</v>
       </c>
       <c r="N8" s="7">
-        <v>138681</v>
+        <v>141351</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>166</v>
+        <v>112</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>167</v>
@@ -4161,25 +4167,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>103</v>
+      </c>
+      <c r="D9" s="7">
+        <v>66196</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>108</v>
       </c>
-      <c r="D9" s="7">
-        <v>73382</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>103</v>
-      </c>
       <c r="I9" s="7">
-        <v>67070</v>
+        <v>77131</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -4194,7 +4200,7 @@
         <v>211</v>
       </c>
       <c r="N9" s="7">
-        <v>140452</v>
+        <v>143327</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -4214,49 +4220,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>2568</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>169</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H10" s="7">
-        <v>4</v>
-      </c>
-      <c r="I10" s="7">
-        <v>2599</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>170</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
       </c>
       <c r="N10" s="7">
-        <v>2599</v>
+        <v>2568</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>122</v>
+        <v>173</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4265,49 +4271,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>159</v>
+      </c>
+      <c r="D11" s="7">
+        <v>119335</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H11" s="7">
         <v>186</v>
       </c>
-      <c r="D11" s="7">
-        <v>157207</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="7">
-        <v>159</v>
-      </c>
       <c r="I11" s="7">
-        <v>121525</v>
+        <v>164788</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>174</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>176</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
         <v>345</v>
       </c>
       <c r="N11" s="7">
-        <v>278732</v>
+        <v>284123</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>125</v>
+        <v>179</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4316,25 +4322,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>163</v>
+      </c>
+      <c r="D12" s="7">
+        <v>121903</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>186</v>
       </c>
-      <c r="D12" s="7">
-        <v>157207</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>163</v>
-      </c>
       <c r="I12" s="7">
-        <v>124124</v>
+        <v>164788</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -4349,7 +4355,7 @@
         <v>349</v>
       </c>
       <c r="N12" s="7">
-        <v>281331</v>
+        <v>286691</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -4369,31 +4375,31 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>3</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2259</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H13" s="7">
         <v>1</v>
       </c>
-      <c r="D13" s="7">
-        <v>1056</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="H13" s="7">
-        <v>3</v>
-      </c>
       <c r="I13" s="7">
-        <v>2279</v>
+        <v>1332</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>181</v>
+        <v>75</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>182</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>183</v>
@@ -4402,7 +4408,7 @@
         <v>4</v>
       </c>
       <c r="N13" s="7">
-        <v>3334</v>
+        <v>3591</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>184</v>
@@ -4420,10 +4426,10 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="D14" s="7">
-        <v>227875</v>
+        <v>195478</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>187</v>
@@ -4432,37 +4438,37 @@
         <v>188</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="H14" s="7">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="I14" s="7">
-        <v>200633</v>
+        <v>235876</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>190</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>17</v>
       </c>
       <c r="M14" s="7">
         <v>541</v>
       </c>
       <c r="N14" s="7">
-        <v>428509</v>
+        <v>431354</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4471,25 +4477,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>277</v>
+      </c>
+      <c r="D15" s="7">
+        <v>197737</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>268</v>
       </c>
-      <c r="D15" s="7">
-        <v>228931</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>277</v>
-      </c>
       <c r="I15" s="7">
-        <v>202912</v>
+        <v>237208</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -4504,7 +4510,7 @@
         <v>545</v>
       </c>
       <c r="N15" s="7">
-        <v>431843</v>
+        <v>434945</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -4524,49 +4530,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>9</v>
+      </c>
+      <c r="D16" s="7">
+        <v>5758</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H16" s="7">
         <v>2</v>
       </c>
-      <c r="D16" s="7">
-        <v>1894</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="I16" s="7">
+        <v>2377</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="H16" s="7">
-        <v>9</v>
-      </c>
-      <c r="I16" s="7">
-        <v>5811</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>11</v>
+      </c>
+      <c r="N16" s="7">
+        <v>8135</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="M16" s="7">
-        <v>11</v>
-      </c>
-      <c r="N16" s="7">
-        <v>7705</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4575,10 +4581,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>568</v>
+        <v>545</v>
       </c>
       <c r="D17" s="7">
-        <v>462909</v>
+        <v>385875</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>200</v>
@@ -4587,37 +4593,37 @@
         <v>201</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>17</v>
+        <v>202</v>
       </c>
       <c r="H17" s="7">
-        <v>545</v>
+        <v>568</v>
       </c>
       <c r="I17" s="7">
-        <v>394213</v>
+        <v>482067</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>204</v>
+        <v>17</v>
       </c>
       <c r="M17" s="7">
         <v>1113</v>
       </c>
       <c r="N17" s="7">
-        <v>857121</v>
+        <v>867941</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>126</v>
+        <v>205</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>117</v>
+        <v>206</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>187</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4626,25 +4632,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>554</v>
+      </c>
+      <c r="D18" s="7">
+        <v>391633</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>570</v>
       </c>
-      <c r="D18" s="7">
-        <v>464803</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>554</v>
-      </c>
       <c r="I18" s="7">
-        <v>400024</v>
+        <v>484444</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -4659,7 +4665,7 @@
         <v>1124</v>
       </c>
       <c r="N18" s="7">
-        <v>864826</v>
+        <v>876076</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -4673,7 +4679,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
